--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lubaby/Documents/OneDrive - gm.uit.edu.vn/workspace/trang-swag-tests-master/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04E24A1-4AD5-1648-95F6-056557C9D90E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF968F5-A840-E446-A057-F067C05F6E79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="2640" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{CACD1597-FC97-0747-9FCF-1B780AFAC18A}"/>
+    <workbookView xWindow="5560" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{CACD1597-FC97-0747-9FCF-1B780AFAC18A}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>standard_user</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Sauce Labs Bolt T-Shirt</t>
+  </si>
+  <si>
+    <t>locked_out_user</t>
   </si>
 </sst>
 </file>
@@ -401,16 +404,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC55984-5D99-BE46-8991-C82B7022DFD9}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -418,16 +422,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -441,7 +453,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786621F8-6D64-904F-A8C3-655783BC0BF8}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lubaby/Documents/OneDrive - gm.uit.edu.vn/workspace/trang-swag-tests-master/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lubaby/Documents/workspace/testing/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF968F5-A840-E446-A057-F067C05F6E79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536B2CBD-A71A-2D4F-8AD0-B6F243507DEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{CACD1597-FC97-0747-9FCF-1B780AFAC18A}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>standard_user</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>locked_out_user</t>
+  </si>
+  <si>
+    <t>validAccount</t>
+  </si>
+  <si>
+    <t>unvalidAccount</t>
+  </si>
+  <si>
+    <t>problem_user</t>
+  </si>
+  <si>
+    <t>performance_glitch_user</t>
+  </si>
+  <si>
+    <t>checkout</t>
   </si>
 </sst>
 </file>
@@ -404,47 +419,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC55984-5D99-BE46-8991-C82B7022DFD9}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
